--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -124,7 +124,7 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Fylke</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
